--- a/Base/Teams/Giants/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Giants/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Giants/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Giants/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>18</v>

--- a/Base/Teams/Giants/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Giants/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>22</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Giants/2021 Target Depth Data.xlsx
@@ -450,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C3">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>52</v>
@@ -462,7 +462,7 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
